--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Amelx-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Amelx-Cd63.xlsx
@@ -540,10 +540,10 @@
         <v>3.424777</v>
       </c>
       <c r="I2">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="J2">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.76498299999999</v>
+        <v>1.275643</v>
       </c>
       <c r="N2">
-        <v>266.294949</v>
+        <v>3.826929</v>
       </c>
       <c r="O2">
-        <v>0.2826061427173424</v>
+        <v>0.008652234199457187</v>
       </c>
       <c r="P2">
-        <v>0.2826061427173424</v>
+        <v>0.008652234199457187</v>
       </c>
       <c r="Q2">
-        <v>101.3334240612637</v>
+        <v>1.456264268870333</v>
       </c>
       <c r="R2">
-        <v>912.000816551373</v>
+        <v>13.106378419833</v>
       </c>
       <c r="S2">
-        <v>0.1616618480225476</v>
+        <v>0.00339229939598817</v>
       </c>
       <c r="T2">
-        <v>0.1616618480225476</v>
+        <v>0.00339229939598817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>3.424777</v>
       </c>
       <c r="I3">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="J3">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>293.861786</v>
       </c>
       <c r="O3">
-        <v>0.3118615135035443</v>
+        <v>0.6643867693241158</v>
       </c>
       <c r="P3">
-        <v>0.3118615135035442</v>
+        <v>0.6643867693241158</v>
       </c>
       <c r="Q3">
         <v>111.8234539857469</v>
@@ -632,10 +632,10 @@
         <v>1006.411085871722</v>
       </c>
       <c r="S3">
-        <v>0.1783970727434504</v>
+        <v>0.2604874977173093</v>
       </c>
       <c r="T3">
-        <v>0.1783970727434504</v>
+        <v>0.2604874977173093</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>3.424777</v>
       </c>
       <c r="I4">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="J4">
-        <v>0.5720393989604073</v>
+        <v>0.3920720726908886</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>127.375404</v>
+        <v>48.20552666666666</v>
       </c>
       <c r="N4">
-        <v>382.126212</v>
+        <v>144.61658</v>
       </c>
       <c r="O4">
-        <v>0.4055323437791133</v>
+        <v>0.326960996476427</v>
       </c>
       <c r="P4">
-        <v>0.4055323437791133</v>
+        <v>0.326960996476427</v>
       </c>
       <c r="Q4">
-        <v>145.410784661636</v>
+        <v>55.03105966696222</v>
       </c>
       <c r="R4">
-        <v>1308.697061954724</v>
+        <v>495.27953700266</v>
       </c>
       <c r="S4">
-        <v>0.2319804781944093</v>
+        <v>0.128192275577591</v>
       </c>
       <c r="T4">
-        <v>0.2319804781944093</v>
+        <v>0.1281922755775911</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8540610000000001</v>
+        <v>1.770097666666667</v>
       </c>
       <c r="H5">
-        <v>2.562183</v>
+        <v>5.310293000000001</v>
       </c>
       <c r="I5">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="J5">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.76498299999999</v>
+        <v>1.275643</v>
       </c>
       <c r="N5">
-        <v>266.294949</v>
+        <v>3.826929</v>
       </c>
       <c r="O5">
-        <v>0.2826061427173424</v>
+        <v>0.008652234199457187</v>
       </c>
       <c r="P5">
-        <v>0.2826061427173424</v>
+        <v>0.008652234199457187</v>
       </c>
       <c r="Q5">
-        <v>75.810710145963</v>
+        <v>2.258012697799667</v>
       </c>
       <c r="R5">
-        <v>682.296391313667</v>
+        <v>20.322114280197</v>
       </c>
       <c r="S5">
-        <v>0.1209442946947948</v>
+        <v>0.005259934803469017</v>
       </c>
       <c r="T5">
-        <v>0.1209442946947948</v>
+        <v>0.005259934803469017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8540610000000001</v>
+        <v>1.770097666666667</v>
       </c>
       <c r="H6">
-        <v>2.562183</v>
+        <v>5.310293000000001</v>
       </c>
       <c r="I6">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="J6">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>293.861786</v>
       </c>
       <c r="O6">
-        <v>0.3118615135035443</v>
+        <v>0.6643867693241158</v>
       </c>
       <c r="P6">
-        <v>0.3118615135035442</v>
+        <v>0.6643867693241158</v>
       </c>
       <c r="Q6">
-        <v>83.65863027098202</v>
+        <v>173.3880205736998</v>
       </c>
       <c r="R6">
-        <v>752.927672438838</v>
+        <v>1560.492185163298</v>
       </c>
       <c r="S6">
-        <v>0.1334644407600939</v>
+        <v>0.4038992716068065</v>
       </c>
       <c r="T6">
-        <v>0.1334644407600939</v>
+        <v>0.4038992716068065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8540610000000001</v>
+        <v>1.770097666666667</v>
       </c>
       <c r="H7">
-        <v>2.562183</v>
+        <v>5.310293000000001</v>
       </c>
       <c r="I7">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="J7">
-        <v>0.4279606010395928</v>
+        <v>0.6079279273091115</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.375404</v>
+        <v>48.20552666666666</v>
       </c>
       <c r="N7">
-        <v>382.126212</v>
+        <v>144.61658</v>
       </c>
       <c r="O7">
-        <v>0.4055323437791133</v>
+        <v>0.326960996476427</v>
       </c>
       <c r="P7">
-        <v>0.4055323437791133</v>
+        <v>0.326960996476427</v>
       </c>
       <c r="Q7">
-        <v>108.786364915644</v>
+        <v>85.32849027310445</v>
       </c>
       <c r="R7">
-        <v>979.0772842407961</v>
+        <v>767.9564124579401</v>
       </c>
       <c r="S7">
-        <v>0.1735518655847041</v>
+        <v>0.198768720898836</v>
       </c>
       <c r="T7">
-        <v>0.1735518655847041</v>
+        <v>0.198768720898836</v>
       </c>
     </row>
   </sheetData>
